--- a/data/trans_dic/P23_8_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P23_8_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que tiene menos o mucha menos posibilidad de la que desea de hablar con alguien de sus problemas económicos</t>
+          <t>Población que tiene menos o mucha menos posibilidad de la que desea de hablar con alguien de sus problemas económicos (tasa de respuesta: 98,94%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,59%</t>
+          <t>2,81%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,69%</t>
+          <t>2,65%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,33%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>1,91%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>5,59%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>4,22%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>16,27%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,62%</t>
+          <t>3,96%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>3,43%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>4,5%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>4,82%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
           <t>12,12%</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>3,38%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>3,01%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>3,98%</t>
-        </is>
-      </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
+          <t>3,84%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>3,37%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>3,04%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>3,48%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>3,39%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
           <t>8,65%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>10,47%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,58; 5,87</t>
+          <t>0,7; 7,07</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,67; 6,31</t>
+          <t>0,65; 6,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,72</t>
+          <t>0,0; 8,14</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,92; 10,87</t>
+          <t>0,0; 7,05</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,29; 9,36</t>
+          <t>2,62; 12,16</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,13; 6,71</t>
+          <t>8,44; 26,95</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,27; 8,86</t>
+          <t>1,31; 8,73</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,93; 21,93</t>
+          <t>1,11; 7,05</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,66; 6,35</t>
+          <t>1,96; 8,71</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,59; 5,37</t>
+          <t>2,08; 8,91</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,07; 7,94</t>
+          <t>6,3; 20,21</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,07; 13,34</t>
+          <t>1,39; 8,94</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>1,69; 6,06</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>1,58; 5,7</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>1,58; 6,37</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>1,68; 6,25</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>5,14; 14,02</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>6,18; 17,36</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>3,43%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,02%</t>
+          <t>5,56%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,31%</t>
+          <t>3,36%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>10,4%</t>
+          <t>4,68%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>5,23%</t>
+          <t>10,41%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
+          <t>12,82%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>5,11%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>3,89%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>4,52%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>6,67%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>5,58%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>5,74%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>4,23%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>4,76%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
           <t>3,9%</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>4,41%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>5,58%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>4,22%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>4,48%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>3,83%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>5,61%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
         <is>
           <t>8,06%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>9,41%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,17; 7,36</t>
+          <t>1,51; 7,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,58; 14,13</t>
+          <t>1,9; 16,91</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,43; 6,66</t>
+          <t>1,36; 6,87</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,84; 17,43</t>
+          <t>2,01; 9,46</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,14; 9,51</t>
+          <t>5,83; 17,89</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,89; 7,43</t>
+          <t>7,17; 21,22</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,2; 7,82</t>
+          <t>2,32; 10,03</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,74; 10,12</t>
+          <t>1,84; 7,46</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,34; 6,89</t>
+          <t>2,25; 7,7</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,36; 8,59</t>
+          <t>3,54; 11,9</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,28; 5,79</t>
+          <t>2,57; 10,14</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,98; 11,89</t>
+          <t>3,06; 10,39</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>2,28; 6,67</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>2,31; 10,06</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>2,41; 6,14</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>3,34; 8,52</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>4,92; 12,09</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>5,95; 14,06</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,82%</t>
+          <t>6,24%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,51%</t>
+          <t>4,37%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,95%</t>
+          <t>5,87%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>7,54%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>10,13%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>5,69%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,21%</t>
+          <t>13,77%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>4,97%</t>
+          <t>5,87%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>3,18%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>4,98%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>4,98%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
           <t>11,05%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>5,75%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>3,85%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>5,45%</t>
-        </is>
-      </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
+          <t>8,09%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>6,05%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>3,77%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>5,41%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>6,22%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
           <t>10,56%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>11,07%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1203,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,51; 9,91</t>
+          <t>3,8; 9,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,91; 11,75</t>
+          <t>1,93; 10,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,6; 9,44</t>
+          <t>3,54; 9,47</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,52; 14,65</t>
+          <t>4,38; 18,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,48; 9,54</t>
+          <t>6,7; 15,39</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,66; 5,68</t>
+          <t>7,77; 21,7</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,03; 7,68</t>
+          <t>3,24; 9,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,93; 15,4</t>
+          <t>1,68; 5,6</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,69; 7,96</t>
+          <t>3,14; 7,81</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,29; 7,39</t>
+          <t>2,85; 8,29</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,89; 7,46</t>
+          <t>7,59; 15,61</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>8,11; 14,0</t>
+          <t>5,01; 12,39</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>4,06; 8,27</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>2,31; 6,74</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>3,97; 7,31</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>3,95; 9,66</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>7,66; 13,74</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>7,97; 15,81</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,22%</t>
+          <t>5,4%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,33%</t>
+          <t>6,34%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,92%</t>
+          <t>7,85%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>16,28%</t>
+          <t>8,45%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>6,55%</t>
+          <t>16,29%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>8,65%</t>
+          <t>15,12%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>8,16%</t>
+          <t>6,64%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
+          <t>8,7%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>8,35%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>11,79%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
           <t>14,47%</t>
         </is>
       </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>5,91%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>7,51%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>8,04%</t>
-        </is>
-      </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>15,42%</t>
+          <t>10,55%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>6,04%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>7,54%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>8,11%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>10,12%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>15,43%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>12,88%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1403,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,59; 12,34</t>
+          <t>2,5; 12,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,78; 11,76</t>
+          <t>3,73; 12,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,1; 12,49</t>
+          <t>4,99; 11,72</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,14; 23,52</t>
+          <t>5,46; 12,35</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,98; 9,44</t>
+          <t>11,08; 23,2</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,07; 12,03</t>
+          <t>10,57; 19,8</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,5; 11,04</t>
+          <t>4,17; 9,73</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,67; 19,55</t>
+          <t>5,96; 11,65</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,98; 9,11</t>
+          <t>5,82; 11,65</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>5,62; 10,66</t>
+          <t>8,62; 15,47</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>6,07; 10,51</t>
+          <t>10,45; 19,72</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>11,9; 19,61</t>
+          <t>6,78; 14,63</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>3,94; 9,61</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>5,56; 10,56</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>6,23; 10,71</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>7,81; 13,07</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>11,76; 19,57</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>10,15; 16,32</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1505,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>7,43%</t>
+          <t>7,77%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>6,07%</t>
+          <t>6,41%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>6,77%</t>
+          <t>6,92%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>18,21%</t>
+          <t>6,28%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>9,99%</t>
+          <t>18,2%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>7,22%</t>
+          <t>18,55%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>8,73%</t>
+          <t>10,16%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
+          <t>7,6%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>8,56%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>11,96%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
           <t>13,06%</t>
         </is>
       </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>8,73%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>6,65%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>7,76%</t>
-        </is>
-      </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
+          <t>20,32%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>8,98%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>7,0%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>7,75%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>9,2%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
           <t>15,52%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>19,46%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1603,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,35; 11,74</t>
+          <t>4,58; 11,88</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,97; 13,03</t>
+          <t>3,36; 14,16</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,97; 10,19</t>
+          <t>4,35; 10,48</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>12,65; 24,83</t>
+          <t>3,66; 10,28</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,67; 14,58</t>
+          <t>12,84; 24,45</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,41; 11,14</t>
+          <t>13,55; 25,79</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,77; 13,01</t>
+          <t>6,91; 15,41</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>9,1; 18,41</t>
+          <t>4,68; 11,07</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,33; 11,56</t>
+          <t>5,76; 12,72</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>4,53; 10,4</t>
+          <t>7,87; 17,86</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>5,7; 10,22</t>
+          <t>9,06; 18,32</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>12,13; 19,8</t>
+          <t>15,32; 27,17</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>6,47; 12,32</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>4,74; 10,8</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>5,51; 10,24</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>6,52; 12,87</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>12,33; 19,81</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>15,49; 23,44</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1705,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>6,36%</t>
+          <t>6,53%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>6,31%</t>
+          <t>6,27%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>6,65%</t>
+          <t>6,77%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>12,71%</t>
+          <t>14,53%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>7,76%</t>
+          <t>12,7%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>6,16%</t>
+          <t>10,01%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>7,4%</t>
+          <t>8,58%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
+          <t>6,01%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>7,65%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>17,83%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
           <t>12,6%</t>
         </is>
       </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>7,17%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>6,23%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>7,08%</t>
-        </is>
-      </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
+          <t>16,84%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>7,7%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>6,13%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>7,27%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>16,31%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
           <t>12,64%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>14,04%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1803,92 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,34; 11,11</t>
+          <t>3,15; 10,77</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,38; 11,24</t>
+          <t>3,52; 10,66</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,49; 10,43</t>
+          <t>3,64; 11,18</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>7,47; 20,24</t>
+          <t>9,05; 21,65</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>4,49; 12,83</t>
+          <t>7,22; 20,27</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,48; 10,14</t>
+          <t>5,88; 16,07</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,31; 11,27</t>
+          <t>5,14; 15,67</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>6,32; 21,12</t>
+          <t>3,22; 9,92</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>4,75; 10,5</t>
+          <t>4,97; 12,02</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>4,14; 9,3</t>
+          <t>11,87; 26,02</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>4,81; 9,8</t>
+          <t>7,25; 21,7</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>8,39; 17,92</t>
+          <t>11,55; 25,26</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>5,21; 12,23</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>4,15; 8,83</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>5,02; 10,26</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>12,24; 21,11</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>8,77; 18,08</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>10,19; 19,49</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1905,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>5,12%</t>
+          <t>5,36%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>5,17%</t>
+          <t>5,26%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5,69%</t>
+          <t>5,58%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>7,41%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
           <t>12,33%</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>6,6%</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>5,44%</t>
+          <t>14,39%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>6,41%</t>
+          <t>6,78%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>11,55%</t>
+          <t>5,48%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>5,88%</t>
+          <t>6,47%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>5,31%</t>
+          <t>9,84%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>6,06%</t>
+          <t>11,56%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
+          <t>11,28%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>6,09%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>5,37%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>6,03%</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>8,64%</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
           <t>11,94%</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>12,83%</t>
         </is>
       </c>
     </row>
@@ -1564,78 +2003,2419 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,02; 6,89</t>
+          <t>4,01; 7,03</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,7; 7,29</t>
+          <t>3,89; 7,55</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,51; 7,12</t>
+          <t>4,43; 6,95</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>10,12; 14,69</t>
+          <t>5,8; 9,36</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,23; 8,18</t>
+          <t>10,36; 14,66</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,45; 6,67</t>
+          <t>12,05; 17,57</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>5,31; 7,79</t>
+          <t>5,26; 8,62</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>9,59; 13,85</t>
+          <t>4,48; 6,79</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,96; 6,93</t>
+          <t>5,4; 7,93</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>4,45; 6,53</t>
+          <t>8,08; 11,97</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>5,19; 7,06</t>
+          <t>9,48; 13,94</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>10,47; 13,57</t>
+          <t>9,35; 13,27</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>5,12; 7,29</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>4,49; 6,46</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>5,29; 7,04</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>7,35; 9,99</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>10,4; 13,51</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>11,25; 14,6</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que tiene menos o mucha menos posibilidad de la que desea de hablar con alguien de sus problemas económicos (tasa de respuesta: 98,94%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>14124</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>13523</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>12193</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>8796</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>2262</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>7169</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>18466</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>17486</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>23020</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>23017</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>4328</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>1479</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>32590</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>31009</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>35213</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>31812</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>6590</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>8649</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>3537; 35519</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>3331; 32756</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 40860</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 32402</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1062; 4923</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>3721; 11873</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>6106; 40653</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>5660; 35892</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>10028; 44525</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>9931; 42513</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>2248; 7214</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>535; 3448</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>16340; 58669</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>16124; 58071</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>15986; 64502</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>15700; 58573</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>3914; 10688</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>5103; 14340</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>19553</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>30619</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>19996</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>26994</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>5108</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>6282</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>26231</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>19638</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>23393</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>33429</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>2598</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>2614</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>45785</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>50256</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>43389</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>60422</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>7706</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>8896</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>8586; 44274</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>10452; 93173</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>8075; 40832</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>11592; 54516</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>2860; 8782</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>3512; 10397</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>11891; 51459</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>9307; 37699</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>11624; 39857</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>17779; 59694</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1198; 4721</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>1392; 4731</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>24741; 72269</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>24440; 106260</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>26804; 68297</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>36033; 91859</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>4709; 11565</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>5626; 13291</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>41723</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>29596</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>39536</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>50465</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>5981</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>8320</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>41710</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>22445</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>35404</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>35298</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>5838</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>4438</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>83433</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>52041</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>74939</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>85763</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>11820</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>12758</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>25410; 66406</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>13062; 69486</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>23840; 63781</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>29288; 123607</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>3957; 9090</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>4694; 13112</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>23029; 63880</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>11844; 39477</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>22330; 55541</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>20191; 58714</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>4012; 8246</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>2750; 6799</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>55897; 113923</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>31871; 93195</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>54940; 101308</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>54386; 133022</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>8569; 15373</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>9192; 18224</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>34542</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>40809</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>49479</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>54792</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>9270</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>8290</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>45120</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>57793</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>54441</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>76254</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>7487</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>5573</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>79663</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>98602</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>103920</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>131046</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>16757</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>13863</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>16023; 82553</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>24019; 80068</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>31449; 73906</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>35385; 80072</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>6301; 13199</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>5798; 10857</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>28341; 66131</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>39606; 77378</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>37931; 75885</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>55787; 100087</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>5405; 10205</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>3578; 7725</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>51976; 126768</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>72748; 138098</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>79815; 137339</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>101209; 169330</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>12777; 21255</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>10926; 17570</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>37705</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>30800</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>33869</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>29432</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>7900</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>7999</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>50347</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>36739</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>42999</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>59383</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>6190</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>9258</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>88052</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>67539</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>76868</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>88814</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>14090</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>17256</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>22247; 57659</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>16157; 68073</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>21295; 51279</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>17178; 48199</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>5573; 10608</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>5842; 11118</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>34226; 76347</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>22604; 53512</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>28930; 63904</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>39057; 88687</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>4296; 8686</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>6979; 12374</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>63474; 120857</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>45737; 104108</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>54610; 101529</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>62991; 124231</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>11197; 17985</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>13735; 20786</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>33488</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>31530</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>34887</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>78801</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>5444</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>4262</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>59018</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>36387</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>50796</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>114255</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>7568</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>10315</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>92505</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>67918</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>85683</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>193057</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>13012</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>14577</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>16136; 55218</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>17707; 53562</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>18764; 57583</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>49122; 117480</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>3093; 8689</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>2502; 6840</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>35344; 107764</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>19528; 60061</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>33005; 79803</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>76084; 166767</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>4357; 13037</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>7075; 15470</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>62513; 146799</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>45993; 97882</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>59143; 120932</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>144826; 249868</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>9028; 18608</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>10581; 20233</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>148.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>147.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>189.0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>191.0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>230.0</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>243.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>181135</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>176877</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>189959</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>249279</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>35965</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>42322</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>240893</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>190488</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>230053</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>341635</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>34009</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>33678</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>422028</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>367365</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>420013</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>590915</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>69974</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>76000</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>135413; 237582</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>130940; 253989</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>150974; 236599</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>195062; 315088</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>30228; 42776</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>35436; 51660</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>186770; 306096</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>155520; 235929</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>192302; 282285</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>280419; 415486</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>27895; 41019</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>27924; 39620</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>354930; 505456</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>306860; 441897</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>368058; 490120</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>502564; 683233</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>60939; 79187</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>66640; 86513</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
